--- a/global_data/day_data/605318.xlsx
+++ b/global_data/day_data/605318.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1149"/>
+  <dimension ref="A1:I1151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33729,6 +33731,64 @@
         <v>0.006599907858987027</v>
       </c>
     </row>
+    <row r="1150" spans="1:9">
+      <c r="A1150" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1150">
+        <v>27.86</v>
+      </c>
+      <c r="C1150">
+        <v>29.18</v>
+      </c>
+      <c r="D1150">
+        <v>27.6</v>
+      </c>
+      <c r="E1150">
+        <v>28.87</v>
+      </c>
+      <c r="F1150">
+        <v>1359500</v>
+      </c>
+      <c r="G1150">
+        <v>39070080</v>
+      </c>
+      <c r="H1150">
+        <v>125729028</v>
+      </c>
+      <c r="I1150">
+        <v>0.01081293653204732</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:9">
+      <c r="A1151" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1151">
+        <v>30</v>
+      </c>
+      <c r="C1151">
+        <v>30.98</v>
+      </c>
+      <c r="D1151">
+        <v>29.09</v>
+      </c>
+      <c r="E1151">
+        <v>29.09</v>
+      </c>
+      <c r="F1151">
+        <v>1452300</v>
+      </c>
+      <c r="G1151">
+        <v>43301449</v>
+      </c>
+      <c r="H1151">
+        <v>125729028</v>
+      </c>
+      <c r="I1151">
+        <v>0.01155103179513962</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
